--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>信达澳银产业升级混合</t>
   </si>
   <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
     <t>93.94</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>2.96</t>
+  </si>
+  <si>
+    <t>0.0397</t>
+  </si>
+  <si>
+    <t>0.0370</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>610004</t>
-  </si>
-  <si>
-    <t>610006</t>
-  </si>
-  <si>
-    <t>信达澳银中小盘混合</t>
-  </si>
-  <si>
-    <t>信达澳银产业升级混合</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>93.94</t>
-  </si>
-  <si>
-    <t>93.59</t>
-  </si>
-  <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>0.0397</t>
-  </si>
-  <si>
-    <t>0.0370</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6827</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4895</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.76</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.6406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1634,13 +1699,1199 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7439</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6753</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9920</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8448</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6550</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5668</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.72</v>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.76</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2885,13 +2972,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3775,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,17 +3787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3806,14 +3827,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.8</v>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3822,14 +3865,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.72</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3838,14 +3903,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.76</v>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3854,14 +3941,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3870,13 +3979,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>610004</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>610006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银产业升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,340 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>009993</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>嘉实前沿创新混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>89.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3007</t>
+          <t>0.8692</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +1007,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -733,36 +1037,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519674</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河创新成长混合</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>158.36</t>
+          <t>25.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.9655</t>
+          <t>1.8001</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -771,36 +1075,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009993</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实前沿创新混合</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.61</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>88.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3552</t>
+          <t>1.2554</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -809,36 +1113,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>009993</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>嘉实前沿创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.02</t>
+          <t>16.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1257</t>
+          <t>1.0787</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -847,36 +1151,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>001039</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>嘉实先进制造股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.77</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8977</t>
+          <t>0.7440</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -885,36 +1189,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.70</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8041</t>
+          <t>0.5797</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -933,22 +1237,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.55</t>
+          <t>15.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.35</t>
+          <t>80.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6827</t>
+          <t>0.5432</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -961,36 +1265,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009994</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合A</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.98</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5179</t>
+          <t>0.4214</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -999,36 +1303,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001039</t>
+          <t>009994</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实先进制造股票</t>
+          <t>嘉实创新先锋混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4895</t>
+          <t>0.4113</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1037,36 +1341,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>012210</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4860</t>
+          <t>0.2156</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1075,36 +1379,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.04</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.89</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3513</t>
+          <t>0.2152</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1113,36 +1417,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>002256</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>金信行业优选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16.73</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3446</t>
+          <t>0.1694</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1151,36 +1455,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>009995</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>嘉实创新先锋混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16.71</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3442</t>
+          <t>0.0734</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1189,36 +1493,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010676</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大保德信新机遇混合</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2421</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1227,36 +1531,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>012211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>74.44</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2154</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1265,36 +1569,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011093</t>
+          <t>006692</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>永赢宏泽一年定期开放灵活配置混合</t>
+          <t>金信消费升级股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>48.11</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1876</t>
+          <t>0.0437</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1303,36 +1607,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1610</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1341,36 +1645,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>43.17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1425</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1379,36 +1683,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011694</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>43.17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1421</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1417,36 +1721,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>006693</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>金信消费升级股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1368</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1455,36 +1759,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009995</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合C</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>65.19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0918</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1493,36 +1797,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011695</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>68.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1531,36 +1835,112 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>002862</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>金信量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>98.08</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0277</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +3188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2829,7 +3209,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2859,36 +3239,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>519674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>银河创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.57</t>
+          <t>158.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8001</t>
+          <t>7.9655</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2897,36 +3277,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004450</t>
+          <t>009993</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实前沿科技沪港深股票</t>
+          <t>嘉实前沿创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>23.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2554</t>
+          <t>1.3552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2935,36 +3315,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009993</t>
+          <t>004450</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实前沿创新混合</t>
+          <t>嘉实前沿科技沪港深股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.96</t>
+          <t>23.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0787</t>
+          <t>1.1257</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2973,36 +3353,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001039</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实先进制造股票</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.88</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7440</t>
+          <t>0.8977</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3011,36 +3391,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001404</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商移动互联网产业股票</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>18.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5797</t>
+          <t>0.8041</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3059,22 +3439,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.90</t>
+          <t>81.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5432</t>
+          <t>0.6827</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3087,36 +3467,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011488</t>
+          <t>009994</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信乐享混合</t>
+          <t>嘉实创新先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>16.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4214</t>
+          <t>0.5179</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3125,36 +3505,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009994</t>
+          <t>001039</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合A</t>
+          <t>嘉实先进制造股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4113</t>
+          <t>0.4895</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3163,36 +3543,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012210</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2156</t>
+          <t>0.4860</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3201,36 +3581,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2152</t>
+          <t>0.3513</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3239,36 +3619,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002256</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金信行业优选灵活配置混合</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>16.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1694</t>
+          <t>0.3446</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3277,36 +3657,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009995</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合C</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>16.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0734</t>
+          <t>0.3442</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -3315,36 +3695,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>010676</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>光大保德信新机遇混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.2421</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -3353,36 +3733,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>012211</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>74.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.2154</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3391,36 +3771,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006692</t>
+          <t>011093</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金信消费升级股票A</t>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>48.11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0437</t>
+          <t>0.1876</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3429,36 +3809,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.1610</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -3467,36 +3847,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>74.76</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.1425</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -3505,36 +3885,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>011694</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>43.17</t>
+          <t>82.42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.1421</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3543,36 +3923,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006693</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金信消费升级股票C</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.1368</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -3581,36 +3961,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>009995</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>嘉实创新先锋混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0918</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3619,36 +3999,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>011695</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>82.42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -3657,112 +4037,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002862</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金信量化精选灵活配置混合</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>98.08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>65.19</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>68.63</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +4080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3797,7 +4101,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3827,340 +4131,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009993</t>
+          <t>001404</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实前沿创新混合</t>
+          <t>招商移动互联网产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8692</t>
+          <t>0.3007</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004450</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实前沿科技沪港深股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7146</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001039</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实先进制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6431</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012210</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1885</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>012211</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0519</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005815</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银汇理睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006692</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信消费升级股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006693</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>金信消费升级股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4174,128 +4174,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.56</v>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.76</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.56</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>7.8</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>31.72</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>16.76</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -583,6 +600,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富策略增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1948,7 +2287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3182,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4074,7 +4413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4168,7 +4507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600641-万业企业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.56</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>7.8</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>31.72</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>16.76</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3521,7 +3746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4413,7 +4638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4507,7 +4732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
